--- a/data/trans_bre/P16A09-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P16A09-Provincia-trans_bre.xlsx
@@ -649,7 +649,7 @@
         <v>0.9612914457035471</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>13.56900047569258</v>
+        <v>13.56900047569257</v>
       </c>
     </row>
     <row r="5">
@@ -660,25 +660,25 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.67876760750693</v>
+        <v>-1.539898308167026</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-1.305887035829666</v>
+        <v>-1.196319904537056</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-0.7020529009973101</v>
+        <v>-0.9490201757024191</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1.488144876743362</v>
+        <v>1.4990261150702</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.4686079622465018</v>
+        <v>-0.4584261789435169</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.5253695284616782</v>
+        <v>-0.4920973700026937</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.3317813327984126</v>
+        <v>-0.3322503791889933</v>
       </c>
       <c r="J5" s="6" t="inlineStr"/>
     </row>
@@ -690,25 +690,25 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>4.782449495716825</v>
+        <v>4.80271862358048</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>5.168090319536381</v>
+        <v>4.837872889029328</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>5.391864889132253</v>
+        <v>4.765228754467632</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>4.384246484770075</v>
+        <v>4.487081888754084</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>2.781042682883619</v>
+        <v>2.894015081398918</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>6.447522810636439</v>
+        <v>5.351714246012586</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>6.959824085509434</v>
+        <v>5.913478917755991</v>
       </c>
       <c r="J6" s="6" t="inlineStr"/>
     </row>
@@ -733,7 +733,7 @@
         <v>1.553000853824325</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>1.093636290319303</v>
+        <v>1.093636290319304</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>4.556975816271708</v>
@@ -756,28 +756,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>2.806112351564054</v>
+        <v>2.658798672808121</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-0.5653208524734233</v>
+        <v>-0.2925441630450583</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-0.1793973077033309</v>
+        <v>-0.1638630924837636</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-0.09891736829047687</v>
+        <v>-0.09821055085174019</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>1.218576621648285</v>
+        <v>1.135246372799288</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.1826094734822684</v>
+        <v>-0.1091456576702276</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.2739314759411796</v>
+        <v>-0.1870163894115472</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.2531334012520373</v>
+        <v>-0.379887086163043</v>
       </c>
     </row>
     <row r="9">
@@ -788,28 +788,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>7.142070977233521</v>
+        <v>7.255808769602515</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>4.803381939563571</v>
+        <v>4.868809552772907</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>3.458605651858535</v>
+        <v>3.475648443853458</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>2.281366690196415</v>
+        <v>2.234440445994851</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>16.05657166108728</v>
+        <v>19.42062436098953</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>2.768143600304014</v>
+        <v>3.317952593678669</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>4.890184154615011</v>
+        <v>5.318091120365943</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>15.30402761341472</v>
+        <v>9.813457133208187</v>
       </c>
     </row>
     <row r="10">
@@ -824,7 +824,7 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>1.116710467658622</v>
+        <v>1.116710467658621</v>
       </c>
       <c r="D10" s="5" t="n">
         <v>4.344523722586335</v>
@@ -836,7 +836,7 @@
         <v>2.737593295261028</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.9225431452722923</v>
+        <v>0.9225431452722921</v>
       </c>
       <c r="H10" s="6" t="n">
         <v>2.753438528430952</v>
@@ -856,28 +856,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.9405420953365878</v>
+        <v>-0.6676003413696143</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>1.654501391718046</v>
+        <v>1.633730421287972</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-1.206640805513722</v>
+        <v>-1.253922843238247</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.5952294912723674</v>
+        <v>0.610072074977105</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.6157307891460635</v>
+        <v>-0.49889052286552</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3733450181096394</v>
+        <v>0.3304742423904707</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.484592939395985</v>
+        <v>-0.4508316602546071</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.1449254126642352</v>
+        <v>0.161091808297709</v>
       </c>
     </row>
     <row r="12">
@@ -888,28 +888,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>3.034497440223585</v>
+        <v>3.309175345595043</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>7.371626205542485</v>
+        <v>7.535256643701294</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3.763592057475798</v>
+        <v>3.81061800317789</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>4.764034175800036</v>
+        <v>4.74250488423416</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>6.055147421142449</v>
+        <v>8.080510434588186</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>11.18238144921713</v>
+        <v>9.86288997070244</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>2.881620889754342</v>
+        <v>3.284048685006147</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>4.973651350977093</v>
+        <v>5.462970162252413</v>
       </c>
     </row>
     <row r="13">
@@ -956,28 +956,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-0.2613419878734019</v>
+        <v>-0.2353479763733753</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.6676340576902871</v>
+        <v>0.8429667943710683</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2411106633723587</v>
+        <v>0.115620356301506</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-0.7254017813999276</v>
+        <v>-0.6803630468252517</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.2117568785038331</v>
+        <v>-0.2490252258886994</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.09874452911582682</v>
+        <v>0.1190659266600965</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.0944817673351757</v>
+        <v>-0.09172829503020043</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.2432170242673543</v>
+        <v>-0.229790790454949</v>
       </c>
     </row>
     <row r="15">
@@ -988,28 +988,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>4.534184113085231</v>
+        <v>4.540675811884493</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>7.252206809148561</v>
+        <v>7.471969168372786</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>5.174467172320088</v>
+        <v>5.020573902936318</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>4.899477917832726</v>
+        <v>4.680805852649877</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>4.718375331488175</v>
+        <v>4.175421257031276</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>3.480376432495551</v>
+        <v>3.732321391549548</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>6.834898708308688</v>
+        <v>6.009943224969899</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>2.847352840963469</v>
+        <v>3.134037153681471</v>
       </c>
     </row>
     <row r="16">
@@ -1033,7 +1033,7 @@
         <v>5.823570451766166</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>2.893437754021612</v>
+        <v>2.893437754021611</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>1.309085909164885</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="J16" s="6" t="n">
-        <v>4.950718244954684</v>
+        <v>4.950718244954683</v>
       </c>
     </row>
     <row r="17">
@@ -1058,26 +1058,26 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.2706830176838436</v>
+        <v>0.388036164344925</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.7562164203659782</v>
+        <v>0.9679313022290494</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2.980845909047713</v>
+        <v>3.069497130037671</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1.12789767874735</v>
+        <v>1.191931056794044</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.01541705580582639</v>
+        <v>-0.1108938800595784</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.03555073183728881</v>
+        <v>0.06670066935048546</v>
       </c>
       <c r="I17" s="6" t="inlineStr"/>
       <c r="J17" s="6" t="n">
-        <v>0.311979576711722</v>
+        <v>0.3623772287572488</v>
       </c>
     </row>
     <row r="18">
@@ -1088,22 +1088,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>10.87916458047248</v>
+        <v>11.57374405330815</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>11.15286148013001</v>
+        <v>10.67077210459858</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>10.40120716195346</v>
+        <v>10.11915717260443</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>4.656566353655162</v>
+        <v>4.532848674838839</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>4.494589996750213</v>
+        <v>4.686630906895346</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>5.240185683065202</v>
+        <v>5.239480615988523</v>
       </c>
       <c r="I18" s="6" t="inlineStr"/>
       <c r="J18" s="6" t="inlineStr"/>
@@ -1129,7 +1129,7 @@
         <v>2.842385126521139</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>2.919344204589116</v>
+        <v>2.919344204589114</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.7700117197590804</v>
@@ -1141,7 +1141,7 @@
         <v>1.402515504043162</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>1.167408252275891</v>
+        <v>1.16740825227589</v>
       </c>
     </row>
     <row r="20">
@@ -1152,28 +1152,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-0.9853951462919215</v>
+        <v>-0.7365370791198611</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.5750210739158432</v>
+        <v>0.5064501524637061</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-0.2016952126631593</v>
+        <v>0.01686730709663041</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.5233138596129645</v>
+        <v>0.726567178329154</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.4401783072515675</v>
+        <v>-0.3701351703086385</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.03734409887677639</v>
+        <v>-0.02935879895621804</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.2881182851603284</v>
+        <v>-0.1617644931161976</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.08926690868530372</v>
+        <v>0.1280745403391216</v>
       </c>
     </row>
     <row r="21">
@@ -1184,28 +1184,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>4.692564443274891</v>
+        <v>4.849137453371145</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>7.38203366777567</v>
+        <v>6.762219310253166</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>5.963060570792968</v>
+        <v>6.139763454651854</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>5.161722495267951</v>
+        <v>5.327547225817152</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>4.132670164548688</v>
+        <v>6.016506292766843</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>6.849016277133975</v>
+        <v>6.004749851639192</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>6.121611051032544</v>
+        <v>10.22524965151128</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>3.085736410220405</v>
+        <v>3.389434924580033</v>
       </c>
     </row>
     <row r="22">
@@ -1229,7 +1229,7 @@
         <v>1.894435430415912</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>2.585676307489972</v>
+        <v>2.585676307489971</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>-0.07122176245012841</v>
@@ -1241,7 +1241,7 @@
         <v>1.248842592655726</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>1.19008518623836</v>
+        <v>1.190085186238359</v>
       </c>
     </row>
     <row r="23">
@@ -1252,28 +1252,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-2.547178264748688</v>
+        <v>-2.715697258780517</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>1.647684033275855</v>
+        <v>1.578291019675955</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.2262248281978063</v>
+        <v>0.2341028337093531</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.8529956699400723</v>
+        <v>0.8962308218373637</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.4647537130265501</v>
+        <v>-0.4823384028264815</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.7372993733009685</v>
+        <v>0.660833082614266</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>-0.02516991665564992</v>
+        <v>-0.01298478637264736</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>0.2462386834074923</v>
+        <v>0.2521022367377079</v>
       </c>
     </row>
     <row r="24">
@@ -1284,28 +1284,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>1.892204195915727</v>
+        <v>1.812339470669643</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>5.464403447051561</v>
+        <v>5.401583100537017</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>3.78691596427875</v>
+        <v>3.665295803119708</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>4.30386436513182</v>
+        <v>4.209457491335719</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.6794508452761161</v>
+        <v>0.6024007518879861</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>7.621796110563132</v>
+        <v>7.076425836871451</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>4.14857362747549</v>
+        <v>3.853864516823668</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>3.2390579885868</v>
+        <v>3.043504218917544</v>
       </c>
     </row>
     <row r="25">
@@ -1329,7 +1329,7 @@
         <v>3.278835578029645</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>8.034319673913423</v>
+        <v>8.034319673913426</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.5899912148607819</v>
@@ -1341,7 +1341,7 @@
         <v>7.078903588898423</v>
       </c>
       <c r="J25" s="6" t="n">
-        <v>3.007376707797807</v>
+        <v>3.007376707797808</v>
       </c>
     </row>
     <row r="26">
@@ -1352,28 +1352,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.2957854691156081</v>
+        <v>0.1374218290008453</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>2.873699758162748</v>
+        <v>2.958401479854301</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1.884460910715159</v>
+        <v>1.883018362057761</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>6.138352660160095</v>
+        <v>5.931276352105316</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.03106723101401414</v>
+        <v>-0.009799569413320906</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>1.292513581210899</v>
+        <v>1.332975712090995</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>1.34543334193285</v>
+        <v>0.8979753027922756</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>1.636771789096977</v>
+        <v>1.606397972206514</v>
       </c>
     </row>
     <row r="27">
@@ -1384,28 +1384,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>4.89561104886333</v>
+        <v>4.58610547721567</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>6.726711698940961</v>
+        <v>6.697689203271374</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>4.85717098477648</v>
+        <v>4.957544213681737</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>10.19956554227729</v>
+        <v>10.17752304303881</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>1.549440738749492</v>
+        <v>1.344623176758127</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>8.565347131863412</v>
+        <v>8.928094433235302</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>35.95221825369558</v>
+        <v>34.66708734567</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>5.165918979561571</v>
+        <v>5.106485207002399</v>
       </c>
     </row>
     <row r="28">
@@ -1452,28 +1452,28 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>1.205012737915008</v>
+        <v>1.182000445658334</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>2.755392677185494</v>
+        <v>2.806622302268556</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1.655255368729342</v>
+        <v>1.7176851847306</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>2.797889550351478</v>
+        <v>2.816848188261734</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.3560202892551412</v>
+        <v>0.3444246804608952</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>1.078283595456926</v>
+        <v>1.129970385559587</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>1.010549938524568</v>
+        <v>1.059617872568344</v>
       </c>
       <c r="J29" s="6" t="n">
-        <v>1.252978361552866</v>
+        <v>1.263727917557591</v>
       </c>
     </row>
     <row r="30">
@@ -1484,28 +1484,28 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>3.152474363600433</v>
+        <v>3.161185039422092</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>4.642842365267972</v>
+        <v>4.764566452161642</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>3.221190031516272</v>
+        <v>3.286010821110382</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>4.299388167291092</v>
+        <v>4.367178005459128</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>1.262021528849009</v>
+        <v>1.29663173860091</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>2.705302128361804</v>
+        <v>2.860094773047459</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>2.962419414622514</v>
+        <v>3.057645433197754</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>2.784830661984186</v>
+        <v>2.891303579045077</v>
       </c>
     </row>
     <row r="31">
